--- a/03_Algorithm/Microsoft/07.xlsx
+++ b/03_Algorithm/Microsoft/07.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15000"/>
+    <workbookView windowHeight="14900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>a</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>k</t>
+  </si>
+  <si>
+    <t>cbbd</t>
+  </si>
+  <si>
+    <t>cabbad</t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1018,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D62" sqref="C62:D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1743,6 +1749,688 @@
         <v>0</v>
       </c>
     </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
